--- a/commit_20.xlsx
+++ b/commit_20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.786443152872961</v>
+        <v>5.87975400658277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.253857589601353</v>
+        <v>0.6390318596501769</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.02802907330741</v>
+        <v>5.484796933490678</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.895204390789265</v>
+        <v>6.264981235583925</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.182400416139661</v>
+        <v>1.945910149055313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.878645742506201</v>
+        <v>5.780304688161854</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.602849960557002</v>
+        <v>1.96766919644531</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.073138462639164</v>
+        <v>5.249671840186011</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.010958835175816</v>
+        <v>4.692739935848731</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.850117760212093</v>
+        <v>4.695318584551162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.614862818491191</v>
+        <v>3.961989414428187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.022868143595443</v>
+        <v>4.024220602546546</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.435151087366554</v>
+        <v>1.907646003798824</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.72158613668417</v>
+        <v>4.056558804736943</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.00306999105318</v>
+        <v>3.463056738418703</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,6943 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.268529664532232</v>
+        <v>4.166459345761036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.47017354039718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.285867502104951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.22908106609995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.287940080406265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>4.031220057313665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3.401512471818012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4.108886234642503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4.062701650089388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3.569549989986669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3.119688179869919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>4.08373840216565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3.270477768709739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3.851609438714934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4.135094432025451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3.633753632755533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4.544130301032868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3.262088863667021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4.369886986944903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3.741881516914696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3.971769339285812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3.690367904184038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3.68542326974175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2.055710712868478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2.633193318217628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6.01631069670151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3.954636538175408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3.083738741969898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>4.178358037930083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2.85428376270881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3.241548281306284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.423284345562439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3.341502550914737</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3.135883456479869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>5.030985134824373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2.770120664037551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3.536954685848357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3.811740553457533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3.044522437723422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2.887921138670077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3.074386189908901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3.370433343810711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2.841271509211495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3.144010601267823</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3.414525693724284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>4.269450330245195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>4.333203346323414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>4.214054886468741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3.144314011347601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3.45360693526704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3.535336622824096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2.891938904034438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2.773717975021311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7.21912986339802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2.043191870545121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3.327321709775238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3.303062253051625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3.089958702079096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3.51209678880316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2.539367399881578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3.733120338433543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3.077816806102434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1.951259504143956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>4.157585379378903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3.157654959858983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3.237313033666404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2.857102837442002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3.137440693888509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2.746221255402377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3.185235195394295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4.075369876686956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>2.502661436409227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3.077268262027718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3.547581228114133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>2.740497183397226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3.352360333911997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3.568984267795982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2.95649420717948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2.751102289386372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2.484366839973802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2.538258445885531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>2.406159575397821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1.721660944584792</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>2.152886784770406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2.70805020110221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2.529033286263787</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>2.345737403861813</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1.631345420808597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>2.95310056517927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>2.303488495219269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3.469924393889543</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>2.263857686979281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3.330230943723398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1.891318759124373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>2.138040927723722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3.007746573426764</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>2.271868512696563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3.838437103732709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3.076705030953836</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3.885316188556013</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>2.473207589419676</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3.619939553105584</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3.480935299945956</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3.888944913173877</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3.30302859788399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>3.396438617437641</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>2.579624673608575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>3.114414117418198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>4.241065430363018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2.900941868178585</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>2.59813770399029</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>3.295606905995085</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3.528957968993347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3.471045481970797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>3.109861445964479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2.442299109797298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3.636728022616116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>2.441927793670536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3.842572297953194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>3.37545149082141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3.948443089156331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>3.07641836112712</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>3.494162268959466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3.119655547994591</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>3.668544297362248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2.662247729572388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>4.068091432091562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>3.620791298675108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>2.668078702217483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>4.087387812984617</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>3.27963525796279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>3.502827262732743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>2.998430488830099</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>4.02561097191663</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>3.527273057115203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3.44690641025925</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>2.942076302152282</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>4.158461480407714</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>4.066361475403622</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>3.342278630609095</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>2.941616952644222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>3.180866903184127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>2.924712909029773</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>4.073748078778374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>4.173589649282552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>4.399424104488271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>2.42369791431057</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>2.429891208838193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3.908189274206488</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>4.03098539331319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3.411132862093964</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>2.867405548607671</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>3.278874618454498</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>3.420115533729731</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>4.200720653221784</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>3.167445011573612</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>3.957304598663683</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3.684845923197867</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>3.677204476775501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>3.608997245233244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3.090478513392069</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>2.988187470199442</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>2.86655519175928</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>2.609497147106435</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>2.448937521738885</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>3.632242500705668</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>3.780779239633743</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3.146280000211928</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>4.132244548451278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>2.03777260331608</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>3.194091008938217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>3.174630287614575</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3.16939431354298</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>3.296960478567779</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>3.146132506812108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>3.891561526731177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>3.130859653460335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>3.827285328863517</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>3.12862094998063</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>2.724083018112712</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>3.546034931405537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>3.259909942183858</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>3.819869764337084</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>3.404927888397863</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>3.060562356770617</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>3.03159057578323</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>3.233183484380926</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>3.923088002404252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>3.582009783799634</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>2.017454035678538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>2.813616536451956</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>1.89308547953809</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>2.745777886482588</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>2.690164633935777</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>3.904193229132771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>2.176467347030804</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>3.905580525176349</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>3.303972380928583</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>2.138397246347724</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>2.441015278026703</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>2.92068702689364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>1.979596215361332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>3.696719101092482</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>3.114402164215711</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>2.890371757896165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>2.933469433871254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>4.774992595259607</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>3.994937730135413</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>1.09861228866811</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>5.124756060611067</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>2.302585092994045</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>2.260203622997563</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>3.168856823598968</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>2.229869649997164</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>3.632242500705669</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>3.428148251763282</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>3.107972275978608</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>3.119162312519753</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>3.202445121228928</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>3.121057675575768</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>3.411620581889961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>2.794740391854249</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>3.790515575865702</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>3.939783608783039</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>2.598143442744435</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>3.422285001398262</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>2.523922032900178</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>2.787588868306675</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>3.238480778947724</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>2.914749744539485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>2.461125079928481</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>3.265673128659185</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>2.110572676095651</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>3.123892749821593</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>2.623521756271808</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>3.11440216421571</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>2.60092504162768</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>2.20478541691352</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>1.963330855718215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>2.396034827173746</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>2.82652911082449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>2.34784261252016</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>2.473207589419676</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>2.108294218918938</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>2.713167275957736</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>3.573502137944436</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>2.544824428855208</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>3.226847169590049</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>2.540036303820981</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>2.780466368938681</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>3.131914222090036</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>3.106496904646025</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>2.679543858968979</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>3.523355727981849</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>3.334504164763043</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>3.490847501332104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>2.675418590839</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>2.984503171477719</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>1.672697323749624</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>3.575308110763467</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>3.281713908736699</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>3.356282626939636</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>3.155508734796145</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>3.507161699355119</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>2.639057329615258</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>3.195137912186889</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>4.521837322557935</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>3.382034756381862</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>1.549826045878202</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>2.698661015237115</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>2.739885713254496</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>3.139175604704038</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>3.00476703520796</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>3.259121886975947</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>3.650567412605493</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>2.739527665685358</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>3.492296912271495</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>2.760178990348348</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>3.198916528720684</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>3.485682946727812</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>3.158499929075536</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>3.689565283904165</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>5.403203401788145</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>3.687750356017973</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>3.170534483086846</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>2.458311329683085</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>3.33556204162804</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>3.057878003877444</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>3.927335027361064</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>3.594156441453184</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>3.617228035025596</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>3.515739651171703</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>2.815533699092177</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>3.349927191125578</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>2.697078039219604</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>2.772588722239781</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>4.238278100304679</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>3.019736127138996</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>3.555595131728823</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>3.316668936831753</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>3.332920519563546</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>3.466704480549237</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>4.562915396699342</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>3.349675945429845</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>2.917432973292216</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>1.778233305799708</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>5.06601113148473</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>3.15145851024303</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>2.987018854998931</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>3.617683558927371</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>3.087042350228026</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>3.047666952558416</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>3.040438727359168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>3.357829738205079</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>3.010717553188772</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>4.038780701384947</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>3.075656369136477</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>3.262200525589906</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>3.891399637165579</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>3.44435482005306</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>3.530207801580762</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1.559581156259877</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>3.215309208518925</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>3.127588129653023</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>2.639057329615258</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>3.321366408396359</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>4.088053732882751</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>1.984398406743557</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>2.750815027819625</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>2.971376539969022</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>3.044238971618822</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>1.69082867137897</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>3.347417853852905</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>2.409395966767824</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>3.067345274035725</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>1.747868097466757</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>3.403649762541224</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>2.798513256943294</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>2.733665598187974</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>2.469518581271311</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>3.852547433114956</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>3.106496904646025</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>3.039115688019164</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>3.106137810412763</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>2.878683422313299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>2.969013744827688</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>3.67269783589017</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>3.481834247512296</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>2.854997127537817</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>3.473426764819137</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>2.359739228665647</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>3.240946979679715</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>3.329884426966169</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>3.935401389392176</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>3.035844962636461</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>2.302585092994045</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>3.741746231561808</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>3.119726938910521</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>3.569932826353827</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>2.579624673608575</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>3.089790603700401</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>3.216941664027093</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>2.712562693256372</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>3.940202709433317</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>3.248491018360708</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>1.255482325178753</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.8486855577264172</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>2.809782175781347</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>4.659281051189067</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>2.971831837185711</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>2.521771818085036</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>3.459665114781211</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>2.769618813347388</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>4.379278397976872</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>4.217680881007782</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>2.236179082707245</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>2.964149420353261</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>1.698673511416039</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>3.173102701104463</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>1.609437912434101</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>3.657935338429656</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>3.148132708133551</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>3.54906521497644</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>3.205344291325103</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>2.69415370398446</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>2.844613583584239</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>5.055726564840543</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>3.186305349261196</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>5.076141418423251</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>1.213007565979904</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>3.84952446196409</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>3.285511340270132</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>1.945934775756114</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>2.276177971504215</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>2.466577143604936</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>2.343960443549483</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>3.961472705064881</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>4.837341005744859</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>3.242192944582224</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>3.74639781852677</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>6.134921120259756</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>3.803480322788273</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>4.289403323629277</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>4.113777973573637</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>3.330230943723399</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>3.883925436076836</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>3.536314384506451</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>3.076418361127119</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>3.116469688839332</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>3.019736127138996</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>2.889242505114635</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>2.735769290759362</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>3.348404038648189</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>1.813879254997473</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>1.429164814093305</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>1.073542846408523</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>3.640985789659613</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>3.60819480414165</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>3.446277940917958</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>2.912920136733328</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>1.775342710598713</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>3.152500897425978</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>2.208855132645658</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>2.351673301904631</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>1.746985288837334</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>4.834650707417338</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>2.853201466032146</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>2.553237002993714</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>2.072381624543763</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>3.076906005173306</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>2.160823939269622</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>3.850541958319641</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>2.902823587955807</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>2.177320422914712</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>3.433813336999152</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>2.48336965836224</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>2.612083611931707</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>2.729786877068355</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>1.329661348854758</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>3.629523146703622</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>2.757938424558798</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>3.03930862940466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>3.012996838949644</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>3.158112548711431</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>2.731526567189045</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>3.823096663224724</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>1.692612403447667</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>3.145394324120462</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>2.863722598086332</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>1.454867109266288</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>2.32548555313471</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>4.633019066259528</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>3.34600608527388</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>4.319151216056444</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>1.09861228866811</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>2.586726486656389</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>1.162225544921092</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>2.631937532917535</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>3.110236521387714</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>5.660393704518252</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>4.588188583430307</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>3.0918866690661</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>5.239449582916978</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>3.096987970912457</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>5.315026940185832</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>3.449539458281651</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>3.513857726554906</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>3.343647562794286</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>1.933809998920632</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>2.71939092170366</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>3.549735095757216</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>3.523355727981849</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>3.869590619399463</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>3.060240443670951</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>3.229936069110285</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>2.488327743368588</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>1.879777379788198</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>3.582979128641912</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>2.615630577027551</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>3.333242411918738</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>2.588573162682117</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>3.823136773164614</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>3.087847586418281</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>3.459467744826232</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>2.698879929114457</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>3.091042453358314</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>1.747868097466757</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>3.569644849439464</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>3.018406044621916</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>3.430313456150075</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>3.669228083180248</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>3.357678793870176</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>3.239073345465797</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>3.216858708496876</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>3.652629782979218</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>3.258096538021483</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>3.076233820970336</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>3.220666331401516</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>1.973001406393613</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>3.130606800710816</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>3.131914222090035</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>3.502670849496594</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>3.262448055261478</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>3.389503962874563</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>3.16939431354298</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>2.618784505846896</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>1.90615474653985</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>3.878913170646134</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>2.80849636608691</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>3.935906706561381</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>2.918057526079795</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>3.129788957781972</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>2.194474390789038</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>4.276803167369705</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>3.506785759880181</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>2.281419692232992</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>4.499170145006747</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>3.318195339292485</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>2.983203288802241</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>3.080869378909481</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>3.223886068491311</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>3.60890308155555</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>2.515649755369904</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>2.833739963624838</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>2.880550479972176</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>2.826357977753385</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>3.263139242300734</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>3.406975920291164</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>4.289047966660158</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>2.886774446912403</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>2.900725967681808</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>3.193159742024954</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>3.3302309437234</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>3.584545199695127</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>3.198872368630013</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>2.713578540805704</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>2.87821830667085</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>3.347877419079571</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>3.808018186543746</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>2.898593519412333</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>2.043191870545121</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>2.933222934688858</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>1.95040949673227</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>1.889159163754022</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>1.902055138293606</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>2.516383016495372</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>2.550362344248448</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>3.320477366938796</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>2.426015131959808</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>2.608906305975448</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>2.82828360550515</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>2.871220252229114</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>2.916899603178833</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>1.972246979423442</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>3.034061099473772</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>2.874573052004374</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>3.714242865695658</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>3.795098479290304</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>0.6931471805599453</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>3.786818744279353</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>3.051261456362515</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>2.350775770542846</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>3.131371730474239</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>3.362339199235906</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>3.12862094998063</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>3.24638418355366</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>3.796275416992579</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>3.076233820970336</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>2.846323859467728</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>3.168104753336212</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>2.426015131959808</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>3.810675068979287</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>3.278089189265435</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>3.784557613337901</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>3.193148394810263</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>3.414951561004886</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>4.045561912115536</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>5.067125525704681</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>4.210042098387082</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>3.019736127138996</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>3.551750800472723</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>3.129781002319465</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>2.780466368938681</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>3.316373721686118</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>3.555191354663272</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>3.444813797491464</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>3.318195339292485</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>3.365823807368754</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>3.039115688019164</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>3.444713086633777</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>3.394549715585359</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>2.763014949153831</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>3.608271842834967</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>3.408506224190039</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>1.09861228866811</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>4.115767957594252</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>2.094729047527649</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>2.714452351742496</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>3.051261456362516</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>3.141126124779702</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>3.287797705653744</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>3.072457935131088</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>3.68978285633916</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>3.727529547278294</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>3.794733619167146</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>3.855319735874317</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>3.430313456150074</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>3.768455409396514</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>3.513395621439284</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>3.811574461720999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>3.480616303432573</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>3.281268315393028</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>3.433196737323844</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>3.745766062414954</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>3.102338764459553</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>2.619729370157402</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>3.647926677887519</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>3.102870713251284</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>3.196759677803174</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>2.338672170290622</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>3.352115437699039</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>3.343647562794285</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>3.374602663587386</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>3.184634504101433</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>3.459984534774455</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>3.413832037103539</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>3.291419946670644</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>3.49277454518402</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>2.054109563763364</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>2.784943972308735</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>3.320362323039676</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>3.537760764144186</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>3.351984484346302</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>2.557793860107733</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>4.064416324698165</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>2.858006239667225</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>3.002796136787263</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>3.336568161190715</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>3.03930862940466</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>2.588573162682118</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>3.462175611736218</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>2.796842294115821</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>2.033662343665036</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>2.557793860107733</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>3.430313456150074</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>3.299427030911561</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>3.308777757587495</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>3.286462961296799</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>1.386294361119891</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>3.266767524684079</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>3.727355599213551</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>3.098139496353804</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>3.947408878577849</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>3.647231077254387</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>3.497937571326654</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>2.76162571219778</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>3.568847395884081</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>3.086715272448052</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>2.830547592983323</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>2.996586974284117</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>3.385458174701733</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>3.609344056190696</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>3.398539378295847</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>3.275453524873913</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>3.181568149269674</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>3.488737420421818</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>3.301664655176154</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>4.480464387975145</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>3.555191354663272</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>4.726614071060556</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>4.155946279048828</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>2.845442516421675</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>3.717699077688533</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>2.263789108845033</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>2.043191870545121</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>3.202187820954343</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>2.68465654191656</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>3.181211671637518</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>3.170733112515924</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>2.666148586953558</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>3.092351476762561</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>3.244492630407297</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>4.069101373905823</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>2.931170461581362</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>3.398823071146219</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>1.09861228866811</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>3.428311068814456</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>2.865235252448844</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>3.980587458452678</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>3.587546014463119</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>2.918057526079795</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>3.515592658973952</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>4.016982205318497</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>4.263248456815981</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>3.466880340241972</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>3.014630013724274</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>3.992782759739281</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>3.825010634561878</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>2.996635675779214</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>3.167927985185123</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>3.112868188125487</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>4.025029844166108</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>3.577564938696724</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>3.383739248713868</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>2.19722457733622</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>3.903392218073535</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>3.718944896499376</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>3.777323825408652</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>3.677957226802148</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>3.733841694566732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>2.978661183242022</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>2.164535559700862</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>1.178654996341646</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>3.53283503975363</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>2.925202764171108</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>3.8303701283752</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>3.664481904452642</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>3.785654653325029</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>2.174245797150412</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>3.484198939597437</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>3.038402545034216</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>3.992976866227035</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>3.599811060239615</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>3.45345973770266</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>3.401292064378082</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>1.970181440026085</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>3.959223967419476</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>3.917260016220417</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <v>3.347877419079572</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <v>3.092192880267173</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <v>2.811796427629895</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>3.371096027880092</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>3.074805707100487</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>2.900980466620676</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>4.16317273525376</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>2.836615415726015</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>3.62637663258522</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>3.16897247470061</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>3.060287092608695</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>2.748434875549246</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>3.309253284724306</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>3.31977064147322</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>3.36374317422714</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>2.374360872975106</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>1.972246979423442</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <v>2.058223904131167</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <v>3.731678821200077</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <v>3.414739581313253</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <v>3.291803819445687</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>2.846480386134866</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>3.962923548512115</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>3.404040433929114</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>3.860623457571697</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>3.050147243747477</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <v>0.6365141682948128</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <v>4.647447774257468</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <v>3.298082653995953</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <v>3.618552207543599</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <v>3.485175421478738</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <v>3.193818235820103</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <v>2.524545921633359</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <v>3.018553436736682</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <v>1.87351052064553</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <v>3.779215227809937</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <v>3.222101919266835</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <v>3.955061402332479</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <v>2.170048346460165</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <v>1.945910149055313</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <v>3.330137475064454</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <v>3.32440431719946</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <v>3.212899893683449</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <v>3.395141243165189</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <v>3.230106200174726</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <v>2.890371757896165</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <v>3.059354848590834</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <v>2.782540810233327</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <v>3.36388201926785</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <v>3.567763693211719</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <v>3.062825325401979</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <v>2.547531366467927</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <v>3.805803100508096</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <v>2.679543858968979</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <v>3.553421846048816</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <v>1.667461933429295</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <v>4.180314174202882</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <v>1.513981957512447</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <v>4.615084906876509</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <v>3.236440340568178</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <v>2.471380486359653</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <v>2.394814397950495</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <v>3.396914420218569</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <v>3.135788186513552</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <v>3.170148321475506</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <v>2.025326220770068</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <v>3.643602484902094</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <v>2.750643912176565</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <v>3.08140883870897</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <v>3.106496904646025</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <v>3.530962571152103</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <v>4.174147355998058</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <v>2.871476118054867</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <v>3.196695409810391</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <v>3.244492630407297</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <v>4.047771977568114</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <v>2.204717825932828</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <v>2.133892358645554</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <v>3.18474072035648</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <v>3.493312694526443</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <v>2.665069073128703</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <v>4.161254621377063</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <v>2.871476118054868</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <v>3.084296132626908</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <v>2.031759218569272</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <v>3.830895721089941</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <v>3.535524289464745</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <v>2.194474390789038</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <v>3.641560094675983</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <v>3.600003096958694</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <v>2.985630919895231</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <v>2.996219637127556</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <v>2.524781447173817</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <v>3.189454205597104</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>3.79128667691375</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <v>2.926417555497996</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <v>3.354987569624825</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <v>3.284892360251435</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <v>2.762312432066596</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <v>3.5463243933489</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <v>3.549046441741704</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <v>2.479955520544518</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <v>3.440988794950229</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <v>3.218935794675468</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <v>3.349070278947686</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <v>2.976138801338434</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <v>3.14458019683849</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <v>3.931717129171388</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <v>2.898745539586338</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <v>2.991090425845649</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <v>2.844305326698262</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <v>1.386294361119891</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <v>3.905157391441005</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <v>3.695355358374231</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <v>3.517775881018239</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <v>3.27741336704585</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <v>2.868591117319339</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <v>3.266330691954872</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <v>3.488737420421819</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <v>2.871476118054867</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <v>2.770973880955686</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <v>1.609437912434101</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <v>4.175165139294065</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <v>2.539367399881578</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <v>2.938318769971462</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <v>3.457943846994489</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <v>3.135265111891202</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <v>2.428273637522868</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <v>3.728074258579458</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <v>2.999815905964475</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <v>2.664619195193492</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <v>3.246828738589744</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <v>3.524091997100827</v>
       </c>
     </row>
   </sheetData>
